--- a/app/webroot/phpexcel/mau/mau_thunhapkhac.xlsx
+++ b/app/webroot/phpexcel/mau/mau_thunhapkhac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpxq2/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{782CDD19-0E97-2247-8645-3AAFBC9AC92F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E187ADFB-DA14-3946-AC40-D29DB1E7A698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{7E2D606E-A3AE-1E44-87E8-466D956D91E8}"/>
+    <workbookView xWindow="14620" yWindow="1500" windowWidth="27640" windowHeight="16940" xr2:uid="{7E2D606E-A3AE-1E44-87E8-466D956D91E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>BẢNG TỔNG HỢP THU NHẬP KHÁC</t>
   </si>
@@ -75,10 +75,16 @@
     <t>C</t>
   </si>
   <si>
-    <t>NGUYỄN NGỌC A</t>
-  </si>
-  <si>
-    <t>NGÔ VĂN B</t>
+    <t>PHẠM MINH TUẤN</t>
+  </si>
+  <si>
+    <t>NGUYỄN ĐĂNG KHANH</t>
+  </si>
+  <si>
+    <t>NGUYỄN SONG LY</t>
+  </si>
+  <si>
+    <t>NINH VĂN ANH</t>
   </si>
 </sst>
 </file>
@@ -266,65 +272,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -641,199 +655,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445DB1C8-4CF2-FD46-8D15-7AAAD5B7A8EB}">
-  <dimension ref="A2:W8"/>
+  <dimension ref="A2:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7">
+      <c r="D6" s="3"/>
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="2">
         <v>4</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="2">
         <v>6</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="2">
         <v>7</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="2">
         <v>8</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
         <v>9</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <v>103</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="17">
+        <v>56010000371717</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="5">
         <v>5</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="6">
         <v>9238000</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="6">
         <v>1639000</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10">
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5">
         <v>5</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="6">
         <v>2284170</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="11">
+      <c r="K7" s="7"/>
+      <c r="L7" s="6">
         <v>7433332</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="6">
         <v>7433332</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>200</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="18">
+        <v>56110000788758</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="9">
         <v>5</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="10">
         <v>11383600</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="9">
         <v>1</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="10">
         <v>1490000</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14">
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="9">
         <v>7</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="10">
         <v>4248288</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="15">
+      <c r="K8" s="11"/>
+      <c r="L8" s="10">
         <v>17801312</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="10">
+        <v>17801312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <v>56110000260797</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>9238000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1639000</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5">
+        <v>5</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2284170</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="6">
+        <v>7433332</v>
+      </c>
+      <c r="M9" s="6">
+        <v>7433332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
+        <v>56110000260414</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>11383600</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1490000</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="9">
+        <v>7</v>
+      </c>
+      <c r="J10" s="10">
+        <v>4248288</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="10">
+        <v>17801312</v>
+      </c>
+      <c r="M10" s="10">
         <v>17801312</v>
       </c>
     </row>
